--- a/cadivi_dong.xlsx
+++ b/cadivi_dong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Dropbox\20. CNTT - VTDR\Trợ lý AI\tinh-toan-dien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046122B-7EF6-4D06-8A5E-860F57AF88ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2109BE8D-6912-4A84-B80F-5BC966799809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2925" windowWidth="9045" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11835" yWindow="2265" windowWidth="9045" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dây đồng" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Bảng Tra Tiết Diện Dây Dẫn Tham Khảo (Dây Đồng, Cách điện PVC, 0.6/1kV)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Tiết diện danh định (mm²)</t>
   </si>
@@ -100,18 +97,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -407,208 +400,201 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4">
-        <v>14</v>
+      <c r="A3" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4">
-        <v>19</v>
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4">
-        <v>73</v>
-      </c>
-      <c r="C8" s="4">
-        <v>60</v>
+      <c r="B8" s="3">
+        <v>99</v>
+      </c>
+      <c r="C8" s="3">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4">
-        <v>99</v>
-      </c>
-      <c r="C9" s="4">
-        <v>81</v>
+      <c r="A9" s="3">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3">
+        <v>123</v>
+      </c>
+      <c r="C9" s="3">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4">
-        <v>123</v>
-      </c>
-      <c r="C10" s="4">
-        <v>101</v>
+      <c r="A10" s="3">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3">
+        <v>149</v>
+      </c>
+      <c r="C10" s="3">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4">
-        <v>149</v>
-      </c>
-      <c r="C11" s="4">
-        <v>122</v>
+      <c r="A11" s="3">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3">
+        <v>185</v>
+      </c>
+      <c r="C11" s="3">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>70</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="3">
+        <v>95</v>
+      </c>
+      <c r="B12" s="3">
+        <v>226</v>
+      </c>
+      <c r="C12" s="3">
         <v>185</v>
       </c>
-      <c r="C12" s="4">
-        <v>152</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>95</v>
-      </c>
-      <c r="B13" s="4">
-        <v>226</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="A13" s="3">
+        <v>120</v>
+      </c>
+      <c r="B13" s="3">
+        <v>261</v>
+      </c>
+      <c r="C13" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>150</v>
+      </c>
+      <c r="B14" s="3">
+        <v>298</v>
+      </c>
+      <c r="C14" s="3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>185</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>120</v>
-      </c>
-      <c r="B14" s="4">
-        <v>261</v>
-      </c>
-      <c r="C14" s="4">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>150</v>
-      </c>
-      <c r="B15" s="4">
-        <v>298</v>
-      </c>
-      <c r="C15" s="4">
-        <v>244</v>
+      <c r="B15" s="3">
+        <v>339</v>
+      </c>
+      <c r="C15" s="3">
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>185</v>
-      </c>
-      <c r="B16" s="4">
-        <v>339</v>
-      </c>
-      <c r="C16" s="4">
-        <v>278</v>
+      <c r="A16" s="3">
+        <v>240</v>
+      </c>
+      <c r="B16" s="3">
+        <v>399</v>
+      </c>
+      <c r="C16" s="3">
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>240</v>
-      </c>
-      <c r="B17" s="4">
-        <v>399</v>
-      </c>
-      <c r="C17" s="4">
-        <v>327</v>
+      <c r="A17" s="3">
+        <v>300</v>
+      </c>
+      <c r="B17" s="3">
+        <v>458</v>
+      </c>
+      <c r="C17" s="3">
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>300</v>
-      </c>
-      <c r="B18" s="4">
-        <v>458</v>
-      </c>
-      <c r="C18" s="4">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A18" s="3">
         <v>400</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B18" s="3">
         <v>538</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C18" s="3">
         <v>440</v>
       </c>
     </row>
